--- a/inst/extdata/maxquant_keys.xlsx
+++ b/inst/extdata/maxquant_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="maxquant_psm_keys" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
   <si>
     <t>Header</t>
   </si>
@@ -226,12 +226,6 @@
     <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation</t>
   </si>
   <si>
-    <t>pep_score</t>
-  </si>
-  <si>
-    <t>pep_expect</t>
-  </si>
-  <si>
     <t>pep_isunique</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>pep_end</t>
   </si>
   <si>
-    <t>pep_miss</t>
-  </si>
-  <si>
     <t>Mascot: ordinal position of last peptide residue in protein sequence</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>Ordinal position of last peptide residue in protein sequence</t>
   </si>
   <si>
-    <t>Count of missed cleavage sites in peptide</t>
-  </si>
-  <si>
     <t>pep_res_before</t>
   </si>
   <si>
@@ -284,9 +272,6 @@
   </si>
   <si>
     <t>Flanking residue on C-term side of peptide</t>
-  </si>
-  <si>
-    <t>pep_var_mod</t>
   </si>
   <si>
     <t>Counts of significant PSMs in quantitation under a proposed peptide</t>
@@ -621,15 +606,6 @@
     <t>Cf. http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable</t>
   </si>
   <si>
-    <t>Post-translational modifications contained within the identified peptide sequence.</t>
-  </si>
-  <si>
-    <t>Posterior Error Probability of the identification. This value essentially operates as a p-value, where smaller is more significant.</t>
-  </si>
-  <si>
-    <t>Andromeda score for the best associated MS/MS spectrum.</t>
-  </si>
-  <si>
     <t>Peptide sequence is unique at the levels of protein groups, protein IDs or none</t>
   </si>
   <si>
@@ -654,18 +630,6 @@
     <t>`Proteins` in MaxQuant</t>
   </si>
   <si>
-    <t>`PEP` in MaxQuant</t>
-  </si>
-  <si>
-    <t>`Score` in MaxQuant</t>
-  </si>
-  <si>
-    <t>`Missed cleavages` in MaxQuant</t>
-  </si>
-  <si>
-    <t>`Modifications` in MaxQuant</t>
-  </si>
-  <si>
     <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
   </si>
   <si>
@@ -754,9 +718,6 @@
     </r>
   </si>
   <si>
-    <t>Median description for the keys of "Charge", "Mass", "PIF", "Fraction of total spectrum", "Mass error [ppm]",  "Mass error [Da]", "Base peak fraction", "Precursor Intensity", "Precursor Apex Fraction", "Intensity coverage", "Peak coverage", "Combinatorics"</t>
-  </si>
-  <si>
     <r>
       <t>Optional for UniProt Fasta; the key will become `</t>
     </r>
@@ -901,6 +862,9 @@
       </rPr>
       <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
     </r>
+  </si>
+  <si>
+    <t>Median description for the keys of "Score", "PEP", "Charge", "Mass", "PIF", "Fraction of total spectrum", "Mass error [ppm]",  "Mass error [Da]", "Base peak fraction", "Precursor Intensity", "Precursor Apex Fraction", "Intensity coverage", "Peak coverage", "Combinatorics"</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1368,7 +1332,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1">
@@ -1391,7 +1355,7 @@
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>53</v>
@@ -1406,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="7" customFormat="1" ht="38.25">
@@ -1417,7 +1381,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="7" customFormat="1" ht="25.5">
@@ -1428,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="7" customFormat="1" ht="51">
@@ -1447,288 +1411,244 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="7" customFormat="1">
+    <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="25.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="38.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="25.5">
+      <c r="B13" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="25.5">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>74</v>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.5">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="38.25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5">
       <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>45</v>
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
-      <c r="A31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="38.25">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.5">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.5">
-      <c r="A35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B30" r:id="rId2" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B26" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1737,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1769,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1792,7 +1712,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>53</v>
@@ -1807,7 +1727,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="38.25">
@@ -1818,7 +1738,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5">
@@ -1829,7 +1749,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -1840,7 +1760,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -1848,10 +1768,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -1862,282 +1782,249 @@
         <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="25.5">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="25.5">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="38.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.5">
-      <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="63.75">
       <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="63.75">
-      <c r="A31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="25.5">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.5">
+    </row>
+    <row r="33" spans="1:2" ht="25.5">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.5">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="25.5">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>85</v>
+      <c r="B34" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B21" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B26" r:id="rId3" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B27" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B18" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B23" r:id="rId3" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2148,7 +2035,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2186,7 +2073,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2197,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2220,7 +2107,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>53</v>
@@ -2235,7 +2122,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -2246,18 +2133,18 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2274,10 +2161,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2306,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2317,7 +2204,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2328,27 +2215,27 @@
         <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
@@ -2356,10 +2243,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2367,10 +2254,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2381,7 +2268,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
@@ -2389,7 +2276,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -2398,7 +2285,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2"/>
     </row>

--- a/inst/extdata/maxquant_keys.xlsx
+++ b/inst/extdata/maxquant_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="maxquant_psm_keys" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>Header</t>
   </si>
@@ -141,21 +141,6 @@
     <t>Protein sequence coverage</t>
   </si>
   <si>
-    <t>I126 et al.</t>
-  </si>
-  <si>
-    <t>R126 et al.</t>
-  </si>
-  <si>
-    <t>log2_R126 et al.</t>
-  </si>
-  <si>
-    <t>N_log2_R126 et al.</t>
-  </si>
-  <si>
-    <t>sd_log2_R126 et al.</t>
-  </si>
-  <si>
     <t>Linear FC relative to TMT-126</t>
   </si>
   <si>
@@ -177,18 +162,12 @@
     <t>The order of "kin_class" from the kinase tree diagram</t>
   </si>
   <si>
-    <t>N_I126 et al.</t>
-  </si>
-  <si>
     <t>The calibration factors for the alignment of log2FC are used to scale the reporter-ion intensity</t>
   </si>
   <si>
     <t>Normalized reporter-ion intensity</t>
   </si>
   <si>
-    <t>log2FC relative to TMT-126</t>
-  </si>
-  <si>
     <t>Count of significant PSMs in quantitation under a proposed protein</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>MS file name(s) where peptides or proteins are identified</t>
   </si>
   <si>
-    <t>Median-centered log2FC relative to TMT-126</t>
-  </si>
-  <si>
     <t>E.g. "-._mAsGVAVSDGVIK.V" with a methionine oxidation and a serine phosphorylation</t>
   </si>
   <si>
@@ -354,16 +330,13 @@
     <t>Cf. PSM keys</t>
   </si>
   <si>
-    <r>
-      <t>Aligned </t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>log2_R (...)</t>
+      <t>N_log2_R (...)</t>
     </r>
     <r>
       <rPr>
@@ -372,61 +345,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> according to '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>normPrn()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> without scaling normalization</t>
-    </r>
-  </si>
-  <si>
+      <t> with scaling normalization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Normalized </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>N_log2_R (...)</t>
+      <t>I... (...)</t>
     </r>
     <r>
       <rPr>
@@ -435,12 +367,48 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> with scaling normalization</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Normalized </t>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculated from contributing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peptides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> under each sample</t>
+    </r>
+  </si>
+  <si>
+    <t>Cf. Peptide keys</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -461,18 +429,122 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Calculated from contributing </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t>prot_len</t>
+  </si>
+  <si>
+    <t>m/z</t>
+  </si>
+  <si>
+    <t>is_tryptic</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>From MaxQuant</t>
+  </si>
+  <si>
+    <t>More column keys from MaxQuant</t>
+  </si>
+  <si>
+    <t>Cf. http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable</t>
+  </si>
+  <si>
+    <t>Peptide sequence is unique at the levels of protein groups, protein IDs or none</t>
+  </si>
+  <si>
+    <t>Cf. proteoQ help document via `?normPSM`</t>
+  </si>
+  <si>
+    <t>The mass-over-charge of the precursor ion.</t>
+  </si>
+  <si>
+    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
+  </si>
+  <si>
+    <t>Corrected or uncorrected from MaxQuant; c.f. `?normPSM`</t>
+  </si>
+  <si>
+    <t>Median description from peptide data</t>
+  </si>
+  <si>
+    <t>`Proteins` in MaxQuant</t>
+  </si>
+  <si>
+    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
+  </si>
+  <si>
+    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`</t>
+  </si>
+  <si>
+    <r>
+      <t>Optional for UniProt Fasta; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_acc`</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>peptides</t>
+      <t xml:space="preserve"> if the primary one is `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniprot_id`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_n_psm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prot_n_psm</t>
     </r>
     <r>
       <rPr>
@@ -481,15 +553,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> under each sample</t>
-    </r>
-  </si>
-  <si>
-    <t>Cf. Peptide keys</t>
-  </si>
-  <si>
-    <r>
-      <t>Normalized</t>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. `</t>
     </r>
     <r>
       <rPr>
@@ -498,7 +567,138 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t>kin_attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cf. PSM keys; the key will become </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`pep_seq_mod`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf. PSM keys; the key will become `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pep_seq`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
+    </r>
+  </si>
+  <si>
+    <t>Median description for the keys of "Score", "PEP", "Charge", "Mass", "PIF", "Fraction of total spectrum", "Mass error [ppm]",  "Mass error [Da]", "Base peak fraction", "Precursor Intensity", "Precursor Apex Fraction", "Intensity coverage", "Peak coverage", "Combinatorics"</t>
+  </si>
+  <si>
+    <t>log2FC in relative to the average intensity of reference(s) under each multiplex TMT</t>
+  </si>
+  <si>
+    <t>Median-centered log2_R...</t>
+  </si>
+  <si>
+    <t>I126 etc.</t>
+  </si>
+  <si>
+    <t>N_I126 etc.</t>
+  </si>
+  <si>
+    <t>sd_log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>R126 etc.</t>
+  </si>
+  <si>
+    <t>log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>N_log2_R126 etc.</t>
+  </si>
+  <si>
+    <t>Relative to the row-mean intensity within each multiplex TMT if no reference(s) are present</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_psm_pep`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSM2Pep()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aligned </t>
     </r>
     <r>
       <rPr>
@@ -506,7 +706,7 @@
         <color rgb="FFC00000"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>I... (...)</t>
+      <t>log2_R (...)</t>
     </r>
     <r>
       <rPr>
@@ -515,7 +715,92 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t/>
+      <t> according to '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>standPep()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without scaling normalization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calculated from the descriptive statistics by `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>method_pep_prn`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pep2Prn()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for indicated samples</t>
     </r>
   </si>
   <si>
@@ -564,7 +849,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>normPep()</t>
+      <t>standPrn()</t>
     </r>
     <r>
       <rPr>
@@ -583,288 +868,6 @@
       </rPr>
       <t xml:space="preserve"> without scaling normalization</t>
     </r>
-  </si>
-  <si>
-    <t>prot_len</t>
-  </si>
-  <si>
-    <t>m/z</t>
-  </si>
-  <si>
-    <t>is_tryptic</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>From MaxQuant</t>
-  </si>
-  <si>
-    <t>More column keys from MaxQuant</t>
-  </si>
-  <si>
-    <t>Cf. http://www.coxdocs.org/doku.php?id=maxquant:table:msmstable</t>
-  </si>
-  <si>
-    <t>Peptide sequence is unique at the levels of protein groups, protein IDs or none</t>
-  </si>
-  <si>
-    <t>Cf. proteoQ help document via `?normPSM`</t>
-  </si>
-  <si>
-    <t>The mass-over-charge of the precursor ion.</t>
-  </si>
-  <si>
-    <t>Joint results from individual PSM tables; the counts exclude entries that are void in reporter-ion intensity or filtered by users</t>
-  </si>
-  <si>
-    <t>Logical indicating if a sequence belongs to a canonical tryptic peptide</t>
-  </si>
-  <si>
-    <t>Corrected or uncorrected from MaxQuant; c.f. `?normPSM`</t>
-  </si>
-  <si>
-    <t>Median description from peptide data</t>
-  </si>
-  <si>
-    <t>`Proteins` in MaxQuant</t>
-  </si>
-  <si>
-    <t>One of `refseq_acc`, `uniprot_acc` or `uniprot_id`</t>
-  </si>
-  <si>
-    <t>Optional at `normPSM(annot_kinases = TRUE, ...)`</t>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_psm_pep`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>normPep()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calculated from the descriptive statistics by `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>method_pep_prn`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>normPrn()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for indicated samples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Optional for UniProt Fasta; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_acc`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> if the primary one is `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uniprot_id`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prot_n_psm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kin_attr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cf. PSM keys; the key will become </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`pep_seq_mod`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq_mod)`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cf. PSM keys; the key will become `</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pep_seq`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at `normPSM(group_psm_by = pep_seq)`</t>
-    </r>
-  </si>
-  <si>
-    <t>Median description for the keys of "Score", "PEP", "Charge", "Mass", "PIF", "Fraction of total spectrum", "Mass error [ppm]",  "Mass error [Da]", "Base peak fraction", "Precursor Intensity", "Precursor Apex Fraction", "Intensity coverage", "Peak coverage", "Combinatorics"</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1">
@@ -1332,7 +1335,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1">
@@ -1355,10 +1358,10 @@
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1370,7 +1373,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="7" customFormat="1" ht="38.25">
@@ -1378,10 +1381,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="7" customFormat="1" ht="25.5">
@@ -1389,10 +1392,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="7" customFormat="1" ht="51">
@@ -1400,10 +1403,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="7" customFormat="1" ht="25.5">
@@ -1411,53 +1414,53 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5">
@@ -1465,10 +1468,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5">
@@ -1476,18 +1479,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1498,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
@@ -1506,10 +1509,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1541,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1552,10 +1555,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5">
@@ -1563,86 +1566,89 @@
         <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="38.25">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1659,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1678,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1689,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1712,10 +1718,10 @@
     </row>
     <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1727,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="38.25">
@@ -1735,10 +1741,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5">
@@ -1746,10 +1752,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -1757,10 +1763,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5">
@@ -1768,10 +1774,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="25.5">
@@ -1779,38 +1785,38 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1825,13 +1831,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1842,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1859,10 +1865,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1879,10 +1885,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1890,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1901,18 +1907,18 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1921,10 +1927,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1932,10 +1938,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1943,21 +1949,21 @@
         <v>12</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="63.75">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5">
@@ -1965,10 +1971,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5">
@@ -1976,21 +1982,21 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5">
@@ -2001,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5">
@@ -2009,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2017,7 +2023,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2034,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2053,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2073,7 +2079,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2084,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2107,10 +2113,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -2119,10 +2125,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5">
@@ -2130,21 +2136,21 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2161,10 +2167,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2190,10 +2196,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2201,10 +2207,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2212,30 +2218,30 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
@@ -2243,10 +2249,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2254,10 +2260,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2268,7 +2274,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
@@ -2276,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -2285,7 +2291,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2"/>
     </row>

--- a/inst/extdata/maxquant_keys.xlsx
+++ b/inst/extdata/maxquant_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="maxquant_psm_keys" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="133">
   <si>
     <t>Header</t>
   </si>
@@ -868,6 +868,66 @@
       </rPr>
       <t xml:space="preserve"> without scaling normalization</t>
     </r>
+  </si>
+  <si>
+    <t>pep_mod_protnt</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein N-terminal modification</t>
+  </si>
+  <si>
+    <t>Cf. `?normPSM` from an R console</t>
+  </si>
+  <si>
+    <t>pep_mod_protntac</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein N-terminal acetylation</t>
+  </si>
+  <si>
+    <t>v.s.</t>
+  </si>
+  <si>
+    <t>pep_mod_pepnt</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains N-terminal modification</t>
+  </si>
+  <si>
+    <t>pep_mod_m</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains methionine oxidation</t>
+  </si>
+  <si>
+    <t>pep_mod_n</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains asparagine deamidation</t>
+  </si>
+  <si>
+    <t>pep_mod_sty</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains the phospholyration of serine, threonine or tyrosine</t>
+  </si>
+  <si>
+    <t>pep_mod_pepct</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains C-terminal modification</t>
+  </si>
+  <si>
+    <t>pep_mod_protctam</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal amidation</t>
+  </si>
+  <si>
+    <t>pep_mod_protct</t>
+  </si>
+  <si>
+    <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1021,6 +1081,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1663,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1820,114 +1883,120 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A18" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A19" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A20" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A21" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>70</v>
@@ -1935,10 +2004,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>70</v>
@@ -1946,91 +2015,184 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="63.75">
-      <c r="A28" s="2" t="s">
+    <row r="33" spans="1:3" ht="25.5">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="63.75">
+      <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5">
-      <c r="A29" s="3" t="s">
+    <row r="38" spans="1:3" ht="25.5">
+      <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5">
-      <c r="A30" s="3" t="s">
+    <row r="39" spans="1:3" ht="25.5">
+      <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="25.5">
-      <c r="A32" s="3" t="s">
+    <row r="41" spans="1:3" ht="25.5">
+      <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5">
-      <c r="A33" s="3" t="s">
+    <row r="42" spans="1:3" ht="25.5">
+      <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B23" r:id="rId3" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B36" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B27" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B32" r:id="rId3" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2040,7 +2202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/maxquant_keys.xlsx
+++ b/inst/extdata/maxquant_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="maxquant_psm_keys" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="144">
   <si>
     <t>Header</t>
   </si>
@@ -928,6 +928,39 @@
   </si>
   <si>
     <t>Logical indicating if a sequence contains Protein C-terminal modification</t>
+  </si>
+  <si>
+    <t>pep_mean_raw</t>
+  </si>
+  <si>
+    <t>Mean log2_R (...) across selected samples</t>
+  </si>
+  <si>
+    <t>Sample selection vai `standPep(col_select = ...)`</t>
+  </si>
+  <si>
+    <t>pep_mean_n</t>
+  </si>
+  <si>
+    <t>Mean N_log2FC(...) across selected samples</t>
+  </si>
+  <si>
+    <t>pep_mean_z</t>
+  </si>
+  <si>
+    <t>Mean Z_log2FC(...) across selected samples</t>
+  </si>
+  <si>
+    <t>prot_mean_raw</t>
+  </si>
+  <si>
+    <t>Sample selection vai `standPrn(col_select = ...)`</t>
+  </si>
+  <si>
+    <t>prot_mean_n</t>
+  </si>
+  <si>
+    <t>prot_mean_z</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1083,6 +1116,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1726,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,52 +2021,54 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
+    <row r="24" spans="1:3" s="15" customFormat="1">
+      <c r="A24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="15" customFormat="1">
+      <c r="A25" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="15" customFormat="1">
+      <c r="A26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>70</v>
@@ -2035,30 +2076,30 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>70</v>
@@ -2066,30 +2107,30 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.5">
-      <c r="A33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>70</v>
@@ -2097,102 +2138,133 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="63.75">
-      <c r="A37" s="2" t="s">
+    <row r="40" spans="1:3" ht="63.75">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25.5">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="25.5">
-      <c r="A39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="25.5">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="25.5">
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="http://kinase.com/human/kinome/"/>
-    <hyperlink ref="B27" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B32" r:id="rId3" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B39" r:id="rId1" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B30" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B35" r:id="rId3" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2200,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2305,60 +2377,64 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>70</v>
@@ -2366,101 +2442,130 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25.5">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:3" ht="25.5">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.5">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B17" r:id="rId2" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B16" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B20" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/maxquant_keys.xlsx
+++ b/inst/extdata/maxquant_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="maxquant_psm_keys" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
   <si>
     <t>Header</t>
   </si>
@@ -933,34 +933,31 @@
     <t>pep_mean_raw</t>
   </si>
   <si>
-    <t>Mean log2_R (...) across selected samples</t>
-  </si>
-  <si>
-    <t>Sample selection vai `standPep(col_select = ...)`</t>
-  </si>
-  <si>
     <t>pep_mean_n</t>
   </si>
   <si>
-    <t>Mean N_log2FC(...) across selected samples</t>
-  </si>
-  <si>
     <t>pep_mean_z</t>
   </si>
   <si>
-    <t>Mean Z_log2FC(...) across selected samples</t>
-  </si>
-  <si>
     <t>prot_mean_raw</t>
   </si>
   <si>
-    <t>Sample selection vai `standPrn(col_select = ...)`</t>
-  </si>
-  <si>
     <t>prot_mean_n</t>
   </si>
   <si>
     <t>prot_mean_z</t>
+  </si>
+  <si>
+    <t>Mean log2_R (...) across samples</t>
+  </si>
+  <si>
+    <t>Mean N_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Mean Z_log2FC(...) across samples</t>
+  </si>
+  <si>
+    <t>Reference and `Empty` samples excluded.</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2026,18 +2023,18 @@
         <v>133</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="15" customFormat="1">
       <c r="A25" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>118</v>
@@ -2045,10 +2042,10 @@
     </row>
     <row r="26" spans="1:3" s="15" customFormat="1">
       <c r="A26" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>118</v>
@@ -2274,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2378,21 +2375,21 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>118</v>
@@ -2400,10 +2397,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>118</v>

--- a/inst/extdata/maxquant_keys.xlsx
+++ b/inst/extdata/maxquant_keys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="maxquant_psm_keys" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t>Header</t>
   </si>
@@ -958,6 +958,18 @@
   </si>
   <si>
     <t>Reference and `Empty` samples excluded.</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpsm</t>
+  </si>
+  <si>
+    <t>Count of unique, significant PSMs in quantitation under a proposed protein</t>
+  </si>
+  <si>
+    <t>prot_n_uniqpep</t>
+  </si>
+  <si>
+    <t>Count of unique, significant peptide sequences in quantitation under a proposed protein</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2269,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2364,205 +2376,223 @@
     </row>
     <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="25.5">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>118</v>
-      </c>
+    <row r="11" spans="1:3" ht="25.5">
+      <c r="A11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="25.5">
+      <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:3" ht="25.5">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="25.5">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="25.5">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
-    <hyperlink ref="B20" r:id="rId2" display="http://kinase.com/human/kinome/"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene"/>
+    <hyperlink ref="B22" r:id="rId2" display="http://kinase.com/human/kinome/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
